--- a/license-details.xlsx
+++ b/license-details.xlsx
@@ -701,7 +701,7 @@
         <v>https://github.com/isaacs/inherits#readme</v>
       </c>
       <c r="G16" t="str">
-        <v/>
+        <v>isaacs</v>
       </c>
     </row>
     <row r="17">
@@ -913,7 +913,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -941,9 +941,129 @@
         <v>Author</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>should/13.2.3</v>
+      </c>
+      <c r="C2" t="str">
+        <v>test framework agnostic BDD-style assertions</v>
+      </c>
+      <c r="D2" t="str">
+        <v>MIT</v>
+      </c>
+      <c r="F2" t="str">
+        <v>https://github.com/shouldjs/should.js</v>
+      </c>
+      <c r="G2" t="str">
+        <v>TJ Holowaychuk</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>should-equal/2.0.0</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Deep comparison of 2 instances for should.js</v>
+      </c>
+      <c r="D3" t="str">
+        <v>MIT</v>
+      </c>
+      <c r="F3" t="str">
+        <v>https://github.com/shouldjs/equal</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Denis Bardadym</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>should-format/3.0.3</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Formatting of objects for should.js</v>
+      </c>
+      <c r="D4" t="str">
+        <v>MIT</v>
+      </c>
+      <c r="F4" t="str">
+        <v>https://github.com/shouldjs/format#readme</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Denis Bardadym</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>should-type/1.4.0</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Simple module to get instance type. Like a bit more advanced version of typeof</v>
+      </c>
+      <c r="D5" t="str">
+        <v>MIT</v>
+      </c>
+      <c r="F5" t="str">
+        <v>https://github.com/shouldjs/type</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Denis Bardadym</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>should-type-adaptors/1.1.0</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Small utility functions to use the same traversing etc code on different types</v>
+      </c>
+      <c r="D6" t="str">
+        <v>MIT</v>
+      </c>
+      <c r="F6" t="str">
+        <v>https://github.com/shouldjs/type-adaptors#readme</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Denis Bardadym</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>should-util/1.0.0</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Utility functions</v>
+      </c>
+      <c r="D7" t="str">
+        <v>MIT</v>
+      </c>
+      <c r="F7" t="str">
+        <v>https://github.com/shouldjs/util#readme</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Denis Bardadym</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/license-details.xlsx
+++ b/license-details.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -769,19 +769,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>once/1.4.0</v>
+        <v>moment/2.22.2</v>
       </c>
       <c r="C20" t="str">
-        <v>Run a function exactly one time</v>
+        <v>Parse, validate, manipulate, and display dates</v>
       </c>
       <c r="D20" t="str">
-        <v>ISC</v>
+        <v>MIT</v>
       </c>
       <c r="F20" t="str">
-        <v>https://github.com/isaacs/once#readme</v>
+        <v>http://momentjs.com</v>
       </c>
       <c r="G20" t="str">
-        <v>Isaac Z. Schlueter</v>
+        <v>Iskren Ivov Chernev</v>
       </c>
     </row>
     <row r="21">
@@ -789,19 +789,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <v>path-is-absolute/1.0.1</v>
+        <v>once/1.4.0</v>
       </c>
       <c r="C21" t="str">
-        <v>Node.js 0.12 path.isAbsolute() ponyfill</v>
+        <v>Run a function exactly one time</v>
       </c>
       <c r="D21" t="str">
-        <v>MIT</v>
+        <v>ISC</v>
       </c>
       <c r="F21" t="str">
-        <v>https://github.com/sindresorhus/path-is-absolute#readme</v>
+        <v>https://github.com/isaacs/once#readme</v>
       </c>
       <c r="G21" t="str">
-        <v>Sindre Sorhus</v>
+        <v>Isaac Z. Schlueter</v>
       </c>
     </row>
     <row r="22">
@@ -809,19 +809,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <v>printj/1.1.2</v>
+        <v>path-is-absolute/1.0.1</v>
       </c>
       <c r="C22" t="str">
-        <v>Pure-JS printf</v>
+        <v>Node.js 0.12 path.isAbsolute() ponyfill</v>
       </c>
       <c r="D22" t="str">
-        <v>Apache-2.0</v>
+        <v>MIT</v>
       </c>
       <c r="F22" t="str">
-        <v>http://sheetjs.com/opensource</v>
+        <v>https://github.com/sindresorhus/path-is-absolute#readme</v>
       </c>
       <c r="G22" t="str">
-        <v>sheetjs</v>
+        <v>Sindre Sorhus</v>
       </c>
     </row>
     <row r="23">
@@ -829,10 +829,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v>ssf/0.10.2</v>
+        <v>printj/1.1.2</v>
       </c>
       <c r="C23" t="str">
-        <v>Format data using ECMA-376 spreadsheet Format Codes</v>
+        <v>Pure-JS printf</v>
       </c>
       <c r="D23" t="str">
         <v>Apache-2.0</v>
@@ -849,19 +849,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <v>wrappy/1.0.2</v>
+        <v>ssf/0.10.2</v>
       </c>
       <c r="C24" t="str">
-        <v>Callback wrapping utility</v>
+        <v>Format data using ECMA-376 spreadsheet Format Codes</v>
       </c>
       <c r="D24" t="str">
-        <v>ISC</v>
+        <v>Apache-2.0</v>
       </c>
       <c r="F24" t="str">
-        <v>https://github.com/npm/wrappy</v>
+        <v>http://sheetjs.com/opensource</v>
       </c>
       <c r="G24" t="str">
-        <v>Isaac Z. Schlueter</v>
+        <v>sheetjs</v>
       </c>
     </row>
     <row r="25">
@@ -869,19 +869,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <v>xlsx/0.13.2</v>
+        <v>wrappy/1.0.2</v>
       </c>
       <c r="C25" t="str">
-        <v>SheetJS Spreadsheet data parser and writer</v>
+        <v>Callback wrapping utility</v>
       </c>
       <c r="D25" t="str">
-        <v>Apache-2.0</v>
+        <v>ISC</v>
       </c>
       <c r="F25" t="str">
-        <v>http://sheetjs.com/opensource</v>
+        <v>https://github.com/npm/wrappy</v>
       </c>
       <c r="G25" t="str">
-        <v>sheetjs</v>
+        <v>Isaac Z. Schlueter</v>
       </c>
     </row>
     <row r="26">
@@ -889,24 +889,44 @@
         <v>25</v>
       </c>
       <c r="B26" t="str">
+        <v>xlsx/0.13.2</v>
+      </c>
+      <c r="C26" t="str">
+        <v>SheetJS Spreadsheet data parser and writer</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Apache-2.0</v>
+      </c>
+      <c r="F26" t="str">
+        <v>http://sheetjs.com/opensource</v>
+      </c>
+      <c r="G26" t="str">
+        <v>sheetjs</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
         <v>xregexp/4.2.0</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C27" t="str">
         <v>Extended regular expressions</v>
       </c>
-      <c r="D26" t="str">
-        <v>MIT</v>
-      </c>
-      <c r="F26" t="str">
+      <c r="D27" t="str">
+        <v>MIT</v>
+      </c>
+      <c r="F27" t="str">
         <v>http://xregexp.com/</v>
       </c>
-      <c r="G26" t="str">
+      <c r="G27" t="str">
         <v>Steven Levithan</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G27"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/license-details.xlsx
+++ b/license-details.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -409,19 +409,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>adler-32/1.2.0</v>
+        <v>@babel/runtime-corejs2/7.8.3</v>
       </c>
       <c r="C2" t="str">
-        <v>Pure-JS ADLER-32</v>
+        <v>babel's modular runtime helpers with core-js@2 polyfilling</v>
       </c>
       <c r="D2" t="str">
-        <v>Apache-2.0</v>
+        <v>MIT</v>
       </c>
       <c r="F2" t="str">
-        <v>http://sheetjs.com/opensource</v>
+        <v/>
       </c>
       <c r="G2" t="str">
-        <v>sheetjs</v>
+        <v>Sebastian McKenzie &lt;sebmck@gmail.com&gt;</v>
       </c>
     </row>
     <row r="3">
@@ -429,19 +429,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>balanced-match/1.0.0</v>
+        <v>adler-32/1.2.0</v>
       </c>
       <c r="C3" t="str">
-        <v>Match balanced character pairs, like "{" and "}"</v>
+        <v>Pure-JS ADLER-32</v>
       </c>
       <c r="D3" t="str">
-        <v>MIT</v>
+        <v>Apache-2.0</v>
       </c>
       <c r="F3" t="str">
-        <v>https://github.com/juliangruber/balanced-match</v>
+        <v>http://sheetjs.com/opensource</v>
       </c>
       <c r="G3" t="str">
-        <v>Julian Gruber</v>
+        <v>sheetjs</v>
       </c>
     </row>
     <row r="4">
@@ -449,19 +449,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>brace-expansion/1.1.11</v>
+        <v>adler-32/1.3.0</v>
       </c>
       <c r="C4" t="str">
-        <v>Brace expansion as known from sh/bash</v>
+        <v>Pure-JS ADLER-32</v>
       </c>
       <c r="D4" t="str">
-        <v>MIT</v>
+        <v>Apache-2.0</v>
       </c>
       <c r="F4" t="str">
-        <v>https://github.com/juliangruber/brace-expansion</v>
+        <v>http://sheetjs.com/opensource</v>
       </c>
       <c r="G4" t="str">
-        <v>Julian Gruber</v>
+        <v>sheetjs</v>
       </c>
     </row>
     <row r="5">
@@ -469,19 +469,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>cfb/1.0.8</v>
+        <v>balanced-match/1.0.0</v>
       </c>
       <c r="C5" t="str">
-        <v>Compound File Binary File Format extractor</v>
+        <v>Match balanced character pairs, like "{" and "}"</v>
       </c>
       <c r="D5" t="str">
-        <v>Apache-2.0</v>
+        <v>MIT</v>
       </c>
       <c r="F5" t="str">
-        <v>http://sheetjs.com/opensource</v>
+        <v>https://github.com/juliangruber/balanced-match</v>
       </c>
       <c r="G5" t="str">
-        <v>sheetjs</v>
+        <v>Julian Gruber</v>
       </c>
     </row>
     <row r="6">
@@ -489,19 +489,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>codepage/1.14.0</v>
+        <v>brace-expansion/1.1.11</v>
       </c>
       <c r="C6" t="str">
-        <v>pure-JS library to handle codepages</v>
+        <v>Brace expansion as known from sh/bash</v>
       </c>
       <c r="D6" t="str">
-        <v>Apache-2.0</v>
+        <v>MIT</v>
       </c>
       <c r="F6" t="str">
-        <v>http://sheetjs.com/opensource</v>
+        <v>https://github.com/juliangruber/brace-expansion</v>
       </c>
       <c r="G6" t="str">
-        <v>SheetJS</v>
+        <v>Julian Gruber</v>
       </c>
     </row>
     <row r="7">
@@ -509,19 +509,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>commander/2.14.1</v>
+        <v>cfb/1.2.1</v>
       </c>
       <c r="C7" t="str">
-        <v>the complete solution for node.js command-line programs</v>
+        <v>Compound File Binary File Format extractor</v>
       </c>
       <c r="D7" t="str">
-        <v>MIT</v>
+        <v>Apache-2.0</v>
       </c>
       <c r="F7" t="str">
-        <v>https://github.com/tj/commander.js#readme</v>
+        <v>http://sheetjs.com/</v>
       </c>
       <c r="G7" t="str">
-        <v>TJ Holowaychuk</v>
+        <v>sheetjs</v>
       </c>
     </row>
     <row r="8">
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>commander/2.15.1</v>
+        <v>codepage/1.15.0</v>
       </c>
       <c r="C8" t="str">
-        <v>the complete solution for node.js command-line programs</v>
+        <v>pure-JS library to handle codepages</v>
       </c>
       <c r="D8" t="str">
-        <v>MIT</v>
+        <v>Apache-2.0</v>
       </c>
       <c r="F8" t="str">
-        <v>https://github.com/tj/commander.js#readme</v>
+        <v>https://sheetjs.com/</v>
       </c>
       <c r="G8" t="str">
-        <v>TJ Holowaychuk</v>
+        <v>SheetJS</v>
       </c>
     </row>
     <row r="9">
@@ -558,7 +558,7 @@
         <v>MIT</v>
       </c>
       <c r="F9" t="str">
-        <v>https://github.com/substack/node-concat-map#readme</v>
+        <v/>
       </c>
       <c r="G9" t="str">
         <v>James Halliday</v>
@@ -569,19 +569,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>crc-32/1.2.0</v>
+        <v>core-js/2.6.11</v>
       </c>
       <c r="C10" t="str">
-        <v>Pure-JS CRC-32</v>
+        <v>Standard library</v>
       </c>
       <c r="D10" t="str">
-        <v>Apache-2.0</v>
+        <v>MIT</v>
       </c>
       <c r="F10" t="str">
-        <v>http://sheetjs.com/opensource</v>
+        <v/>
       </c>
       <c r="G10" t="str">
-        <v>sheetjs</v>
+        <v>zloirock</v>
       </c>
     </row>
     <row r="11">
@@ -589,16 +589,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>exit-on-epipe/1.0.1</v>
+        <v>crc-32/1.2.0</v>
       </c>
       <c r="C11" t="str">
-        <v>Cleanly exit process on EPIPE</v>
+        <v>Pure-JS CRC-32</v>
       </c>
       <c r="D11" t="str">
         <v>Apache-2.0</v>
       </c>
       <c r="F11" t="str">
-        <v>https://github.com/SheetJS/node-exit-on-epipe#readme</v>
+        <v>http://sheetjs.com/opensource</v>
       </c>
       <c r="G11" t="str">
         <v>sheetjs</v>
@@ -609,19 +609,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>frac/1.1.2</v>
+        <v>exit-on-epipe/1.0.1</v>
       </c>
       <c r="C12" t="str">
-        <v>Rational approximation with bounded denominator</v>
+        <v>Cleanly exit process on EPIPE</v>
       </c>
       <c r="D12" t="str">
         <v>Apache-2.0</v>
       </c>
       <c r="F12" t="str">
-        <v>http://sheetjs.com/opensource</v>
+        <v/>
       </c>
       <c r="G12" t="str">
-        <v>SheetJS</v>
+        <v>sheetjs</v>
       </c>
     </row>
     <row r="13">
@@ -629,19 +629,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>fs.realpath/1.0.0</v>
+        <v>frac/1.1.2</v>
       </c>
       <c r="C13" t="str">
-        <v>Use node's fs.realpath, but fall back to the JS implementation if the native one fails</v>
+        <v>Rational approximation with bounded denominator</v>
       </c>
       <c r="D13" t="str">
-        <v>ISC</v>
+        <v>Apache-2.0</v>
       </c>
       <c r="F13" t="str">
-        <v>https://github.com/isaacs/fs.realpath#readme</v>
+        <v>http://sheetjs.com/opensource</v>
       </c>
       <c r="G13" t="str">
-        <v>Isaac Z. Schlueter</v>
+        <v>SheetJS</v>
       </c>
     </row>
     <row r="14">
@@ -649,19 +649,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>glob/7.1.2</v>
+        <v>fs.realpath/1.0.0</v>
       </c>
       <c r="C14" t="str">
-        <v>a little globber</v>
+        <v>Use node's fs.realpath, but fall back to the JS implementation if the native one fails</v>
       </c>
       <c r="D14" t="str">
         <v>ISC</v>
       </c>
       <c r="F14" t="str">
-        <v>https://github.com/isaacs/node-glob#readme</v>
+        <v/>
       </c>
       <c r="G14" t="str">
-        <v>Isaac Z. Schlueter</v>
+        <v>Isaac Z. Schlueter &lt;i@izs.me&gt; (http://blog.izs.me/)</v>
       </c>
     </row>
     <row r="15">
@@ -669,19 +669,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>inflight/1.0.6</v>
+        <v>glob/7.1.6</v>
       </c>
       <c r="C15" t="str">
-        <v>Add callbacks to requests in flight to avoid async duplication</v>
+        <v>a little globber</v>
       </c>
       <c r="D15" t="str">
         <v>ISC</v>
       </c>
       <c r="F15" t="str">
-        <v>https://github.com/isaacs/inflight</v>
+        <v/>
       </c>
       <c r="G15" t="str">
-        <v>Isaac Z. Schlueter</v>
+        <v>Isaac Z. Schlueter &lt;i@izs.me&gt; (http://blog.izs.me/)</v>
       </c>
     </row>
     <row r="16">
@@ -689,19 +689,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <v>inherits/2.0.3</v>
+        <v>inflight/1.0.6</v>
       </c>
       <c r="C16" t="str">
-        <v>Browser-friendly inheritance fully compatible with standard node.js inherits()</v>
+        <v>Add callbacks to requests in flight to avoid async duplication</v>
       </c>
       <c r="D16" t="str">
         <v>ISC</v>
       </c>
       <c r="F16" t="str">
-        <v>https://github.com/isaacs/inherits#readme</v>
+        <v>https://github.com/isaacs/inflight</v>
       </c>
       <c r="G16" t="str">
-        <v>isaacs</v>
+        <v>Isaac Z. Schlueter &lt;i@izs.me&gt; (http://blog.izs.me/)</v>
       </c>
     </row>
     <row r="17">
@@ -709,19 +709,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>jstreemap/1.24.1</v>
+        <v>inherits/2.0.4</v>
       </c>
       <c r="C17" t="str">
-        <v>Library of associative containers; it implements TreeMap, TreeSet, TreeMultiMap and TreeMultiSet classes</v>
+        <v>Browser-friendly inheritance fully compatible with standard node.js inherits()</v>
       </c>
       <c r="D17" t="str">
-        <v>0BSD</v>
+        <v>ISC</v>
       </c>
       <c r="F17" t="str">
-        <v>https://github.com/kirusi/jstreemap#readme</v>
+        <v/>
       </c>
       <c r="G17" t="str">
-        <v>Kirusi Msafiri</v>
+        <v>isaacs</v>
       </c>
     </row>
     <row r="18">
@@ -729,19 +729,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>minimatch/3.0.4</v>
+        <v>jstreemap/1.28.2</v>
       </c>
       <c r="C18" t="str">
-        <v>a glob matcher in javascript</v>
+        <v>Library of associative containers; it implements TreeMap, TreeSet, TreeMultiMap and TreeMultiSet classes</v>
       </c>
       <c r="D18" t="str">
-        <v>ISC</v>
+        <v>0BSD</v>
       </c>
       <c r="F18" t="str">
-        <v>https://github.com/isaacs/minimatch#readme</v>
+        <v>https://github.com/kirusi/jstreemap#readme</v>
       </c>
       <c r="G18" t="str">
-        <v>Isaac Z. Schlueter</v>
+        <v>Kirusi Msafiri</v>
       </c>
     </row>
     <row r="19">
@@ -749,19 +749,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>minimist/1.2.0</v>
+        <v>minimatch/3.0.4</v>
       </c>
       <c r="C19" t="str">
-        <v>parse argument options</v>
+        <v>a glob matcher in javascript</v>
       </c>
       <c r="D19" t="str">
-        <v>MIT</v>
+        <v>ISC</v>
       </c>
       <c r="F19" t="str">
-        <v>https://github.com/substack/minimist</v>
+        <v/>
       </c>
       <c r="G19" t="str">
-        <v>James Halliday</v>
+        <v>Isaac Z. Schlueter &lt;i@izs.me&gt; (http://blog.izs.me)</v>
       </c>
     </row>
     <row r="20">
@@ -769,19 +769,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>moment/2.22.2</v>
+        <v>minimist/1.2.5</v>
       </c>
       <c r="C20" t="str">
-        <v>Parse, validate, manipulate, and display dates</v>
+        <v>parse argument options</v>
       </c>
       <c r="D20" t="str">
         <v>MIT</v>
       </c>
       <c r="F20" t="str">
-        <v>http://momentjs.com</v>
+        <v>https://github.com/substack/minimist</v>
       </c>
       <c r="G20" t="str">
-        <v>Iskren Ivov Chernev</v>
+        <v>James Halliday</v>
       </c>
     </row>
     <row r="21">
@@ -798,10 +798,10 @@
         <v>ISC</v>
       </c>
       <c r="F21" t="str">
-        <v>https://github.com/isaacs/once#readme</v>
+        <v/>
       </c>
       <c r="G21" t="str">
-        <v>Isaac Z. Schlueter</v>
+        <v>Isaac Z. Schlueter &lt;i@izs.me&gt; (http://blog.izs.me/)</v>
       </c>
     </row>
     <row r="22">
@@ -809,19 +809,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <v>path-is-absolute/1.0.1</v>
+        <v>parse-yarn-lock/0.28.4</v>
       </c>
       <c r="C22" t="str">
-        <v>Node.js 0.12 path.isAbsolute() ponyfill</v>
+        <v>parses yarn.lock file using global yarn installation</v>
       </c>
       <c r="D22" t="str">
         <v>MIT</v>
       </c>
       <c r="F22" t="str">
-        <v>https://github.com/sindresorhus/path-is-absolute#readme</v>
+        <v/>
       </c>
       <c r="G22" t="str">
-        <v>Sindre Sorhus</v>
+        <v>cdaringe</v>
       </c>
     </row>
     <row r="23">
@@ -829,19 +829,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v>printj/1.1.2</v>
+        <v>path-is-absolute/1.0.1</v>
       </c>
       <c r="C23" t="str">
-        <v>Pure-JS printf</v>
+        <v>Node.js 0.12 path.isAbsolute() ponyfill</v>
       </c>
       <c r="D23" t="str">
-        <v>Apache-2.0</v>
+        <v>MIT</v>
       </c>
       <c r="F23" t="str">
-        <v>http://sheetjs.com/opensource</v>
+        <v/>
       </c>
       <c r="G23" t="str">
-        <v>sheetjs</v>
+        <v>Sindre Sorhus</v>
       </c>
     </row>
     <row r="24">
@@ -849,10 +849,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <v>ssf/0.10.2</v>
+        <v>printj/1.1.2</v>
       </c>
       <c r="C24" t="str">
-        <v>Format data using ECMA-376 spreadsheet Format Codes</v>
+        <v>Pure-JS printf</v>
       </c>
       <c r="D24" t="str">
         <v>Apache-2.0</v>
@@ -869,19 +869,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <v>wrappy/1.0.2</v>
+        <v>printj/1.2.3</v>
       </c>
       <c r="C25" t="str">
-        <v>Callback wrapping utility</v>
+        <v>Pure-JS printf</v>
       </c>
       <c r="D25" t="str">
-        <v>ISC</v>
+        <v>Apache-2.0</v>
       </c>
       <c r="F25" t="str">
-        <v>https://github.com/npm/wrappy</v>
+        <v>http://sheetjs.com/opensource</v>
       </c>
       <c r="G25" t="str">
-        <v>Isaac Z. Schlueter</v>
+        <v>sheetjs</v>
       </c>
     </row>
     <row r="26">
@@ -889,16 +889,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="str">
-        <v>xlsx/0.13.2</v>
+        <v>printj/1.3.0</v>
       </c>
       <c r="C26" t="str">
-        <v>SheetJS Spreadsheet data parser and writer</v>
+        <v>Pure-JS printf</v>
       </c>
       <c r="D26" t="str">
         <v>Apache-2.0</v>
       </c>
       <c r="F26" t="str">
-        <v>http://sheetjs.com/opensource</v>
+        <v>https://sheetjs.com/</v>
       </c>
       <c r="G26" t="str">
         <v>sheetjs</v>
@@ -909,24 +909,144 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <v>xregexp/4.2.0</v>
+        <v>regenerator-runtime/0.13.3</v>
       </c>
       <c r="C27" t="str">
+        <v>Runtime for Regenerator-compiled generator and async functions.</v>
+      </c>
+      <c r="D27" t="str">
+        <v>MIT</v>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v>Ben Newman &lt;bn@cs.stanford.edu&gt;</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>ssf/0.11.2</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Format data using ECMA-376 spreadsheet Format Codes</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Apache-2.0</v>
+      </c>
+      <c r="F28" t="str">
+        <v>http://sheetjs.com/</v>
+      </c>
+      <c r="G28" t="str">
+        <v>sheetjs</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>wmf/1.0.2</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Windows MetaFile (WMF) parser</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Apache-2.0</v>
+      </c>
+      <c r="F29" t="str">
+        <v>https://sheetjs.com/</v>
+      </c>
+      <c r="G29" t="str">
+        <v>sheetjs</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>word/0.3.0</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Word Processing Document library</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Apache-2.0</v>
+      </c>
+      <c r="F30" t="str">
+        <v>https://wordjs.com/</v>
+      </c>
+      <c r="G30" t="str">
+        <v>sheetjs</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>wrappy/1.0.2</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Callback wrapping utility</v>
+      </c>
+      <c r="D31" t="str">
+        <v>ISC</v>
+      </c>
+      <c r="F31" t="str">
+        <v>https://github.com/npm/wrappy</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Isaac Z. Schlueter &lt;i@izs.me&gt; (http://blog.izs.me/)</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>xlsx/0.17.4</v>
+      </c>
+      <c r="C32" t="str">
+        <v>SheetJS Spreadsheet data parser and writer</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Apache-2.0</v>
+      </c>
+      <c r="F32" t="str">
+        <v>https://sheetjs.com/</v>
+      </c>
+      <c r="G32" t="str">
+        <v>sheetjs</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>xregexp/4.2.4</v>
+      </c>
+      <c r="C33" t="str">
         <v>Extended regular expressions</v>
       </c>
-      <c r="D27" t="str">
-        <v>MIT</v>
-      </c>
-      <c r="F27" t="str">
+      <c r="D33" t="str">
+        <v>MIT</v>
+      </c>
+      <c r="F33" t="str">
         <v>http://xregexp.com/</v>
       </c>
-      <c r="G27" t="str">
-        <v>Steven Levithan</v>
+      <c r="G33" t="str">
+        <v>Steven Levithan &lt;steves_list@hotmail.com&gt;</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G33"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -978,7 +1098,7 @@
         <v>https://github.com/shouldjs/should.js</v>
       </c>
       <c r="G2" t="str">
-        <v>TJ Holowaychuk</v>
+        <v>TJ Holowaychuk &lt;tj@vision-media.ca&gt;, Denis Bardadym &lt;bardadymchik@gmail.com&gt;</v>
       </c>
     </row>
     <row r="3">
@@ -998,7 +1118,7 @@
         <v>https://github.com/shouldjs/equal</v>
       </c>
       <c r="G3" t="str">
-        <v>Denis Bardadym</v>
+        <v>Denis Bardadym &lt;bardadymchik@gmail.com&gt;</v>
       </c>
     </row>
     <row r="4">
@@ -1015,10 +1135,10 @@
         <v>MIT</v>
       </c>
       <c r="F4" t="str">
-        <v>https://github.com/shouldjs/format#readme</v>
+        <v/>
       </c>
       <c r="G4" t="str">
-        <v>Denis Bardadym</v>
+        <v>Denis Bardadym &lt;bardadymchik@gmail.com&gt;</v>
       </c>
     </row>
     <row r="5">
@@ -1038,7 +1158,7 @@
         <v>https://github.com/shouldjs/type</v>
       </c>
       <c r="G5" t="str">
-        <v>Denis Bardadym</v>
+        <v>Denis Bardadym &lt;bardadymchik@gmail.com&gt;</v>
       </c>
     </row>
     <row r="6">
@@ -1058,7 +1178,7 @@
         <v>https://github.com/shouldjs/type-adaptors#readme</v>
       </c>
       <c r="G6" t="str">
-        <v>Denis Bardadym</v>
+        <v>Denis Bardadym &lt;bardadymchik@gmail.com&gt;</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>should-util/1.0.0</v>
+        <v>should-util/1.0.1</v>
       </c>
       <c r="C7" t="str">
         <v>Utility functions</v>
@@ -1078,7 +1198,7 @@
         <v>https://github.com/shouldjs/util#readme</v>
       </c>
       <c r="G7" t="str">
-        <v>Denis Bardadym</v>
+        <v>Denis Bardadym &lt;bardadymchik@gmail.com&gt;</v>
       </c>
     </row>
   </sheetData>
